--- a/data/timetable/schedule.xlsx
+++ b/data/timetable/schedule.xlsx
@@ -101,123 +101,123 @@
     <t>Saturday 15:30 - 17:00</t>
   </si>
   <si>
+    <t>ТССУ лек., Кузнецов В.Е., 5230</t>
+  </si>
+  <si>
+    <t>ТЕХНИЧЕСКОЕ ЗРЕНИЕ лек., Гречухин М.Н., 1244</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ТССУ пр., Кузнецов В.Е., 2403</t>
+  </si>
+  <si>
+    <t>БЖД лаб., Трусов А.А., 5135</t>
+  </si>
+  <si>
+    <t>ПЛКиПС лек., Вейнмейстер А.В., 1229</t>
+  </si>
+  <si>
+    <t>Привод лек., Козлова Л.П., 1229</t>
+  </si>
+  <si>
+    <t>Привод лаб., Козлова Л.П., D103</t>
+  </si>
+  <si>
+    <t>ПЛКиПС пр., Богданова С.М., 8203-2</t>
+  </si>
+  <si>
+    <t>ТЕХНИЧЕСКОЕ ЗРЕНИЕ пр., Федоркова А.О., 8203-1</t>
+  </si>
+  <si>
+    <t>БЖД пр., Буканин В.А., 5141</t>
+  </si>
+  <si>
+    <t>ПЛКиПС лаб., Вейнмейстер А.В., 8103-1</t>
+  </si>
+  <si>
     <t>ТОУ лаб., Амбросовская Е.Б., 8217</t>
   </si>
   <si>
     <t>МПТвМиРТ лек., Копычев М.М., 1158</t>
   </si>
   <si>
-    <t>БЖД лаб., Трусов А.А., 5135</t>
-  </si>
-  <si>
-    <t>ТЕХНИЧЕСКОЕ ЗРЕНИЕ пр., Федоркова А.О., 8203-1</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ПЛКиПС лек., Вейнмейстер А.В., 1229</t>
-  </si>
-  <si>
-    <t>ТЕХНИЧЕСКОЕ ЗРЕНИЕ лек., Гречухин М.Н., 1244</t>
-  </si>
-  <si>
     <t>БЖД лек., Буканин В.А., 5143</t>
   </si>
   <si>
+    <t>ТССУ лаб., Якупов О.Э., 8103-1</t>
+  </si>
+  <si>
     <t>ТОУ лек., Амбросовская Е.Б., 5230</t>
   </si>
   <si>
-    <t>Привод лек., Козлова Л.П., 1229</t>
-  </si>
-  <si>
-    <t>Привод лаб., Козлова Л.П., D103</t>
-  </si>
-  <si>
-    <t>БЖД пр., Буканин В.А., 5141</t>
-  </si>
-  <si>
-    <t>ТССУ лаб., Якупов О.Э., 8103-1</t>
-  </si>
-  <si>
-    <t>ТССУ лек., Кузнецов В.Е., 5230</t>
-  </si>
-  <si>
-    <t>ПЛКиПС лаб., Вейнмейстер А.В., 8103-1</t>
-  </si>
-  <si>
-    <t>ТССУ пр., Кузнецов В.Е., 2403</t>
-  </si>
-  <si>
-    <t>ПЛКиПС пр., Богданова С.М., 8203-2</t>
+    <t>БЖД пр., Трусов А.О., 5141</t>
+  </si>
+  <si>
+    <t>ПЛКиПС пр., Филатова Е.С., 8203-2</t>
+  </si>
+  <si>
+    <t>ТЕХНИЧЕСКОЕ ЗРЕНИЕ лаб., Федоркова А.О., 8203-1</t>
   </si>
   <si>
     <t>БЖД лаб., Маловский А.И., 5135</t>
   </si>
   <si>
-    <t>ТЕХНИЧЕСКОЕ ЗРЕНИЕ лаб., Федоркова А.О., 8203-1</t>
-  </si>
-  <si>
-    <t>БЖД пр., Трусов А.О., 5141</t>
-  </si>
-  <si>
-    <t>ПЛКиПС пр., Филатова Е.С., 8203-2</t>
+    <t>Привод пр., Дикун И.А., 4302</t>
+  </si>
+  <si>
+    <t>БЖД пр., Демидович О.В., 5141</t>
+  </si>
+  <si>
+    <t>СЭЭС пр., Михайлов Д.П., 8102</t>
+  </si>
+  <si>
+    <t>БЖД лаб., Овдиенко Е.Н., 5135</t>
+  </si>
+  <si>
+    <t>АПМСЭЭС лек., Леута А.А., 5221</t>
+  </si>
+  <si>
+    <t>АПМСЭЭС лаб., Леута А.А., 8101</t>
   </si>
   <si>
     <t>СЭЭС лек., Лукичев А.Н., 2322</t>
   </si>
   <si>
-    <t>БЖД пр., Демидович О.В., 5141</t>
-  </si>
-  <si>
-    <t>АПМСЭЭС лек., Леута А.А., 5221</t>
-  </si>
-  <si>
-    <t>Привод пр., Дикун И.А., 4302</t>
-  </si>
-  <si>
-    <t>СЭЭС пр., Михайлов Д.П., 8102</t>
-  </si>
-  <si>
-    <t>АПМСЭЭС лаб., Леута А.А., 8101</t>
-  </si>
-  <si>
-    <t>БЖД лаб., Овдиенко Е.Н., 5135</t>
+    <t>СУЭЭУК пр., Михайлов Д.П., 8102</t>
+  </si>
+  <si>
+    <t>МССУ (ДВС6) лаб., Мирошников А.Н., 8112</t>
+  </si>
+  <si>
+    <t>ФиРИСУК (ДВС8) пр., Скороходов Д.А., 8112</t>
+  </si>
+  <si>
+    <t>БЖД пр., Трусов А.О., 5134</t>
+  </si>
+  <si>
+    <t>СУЭЭУК лек., Лукичев А.Н., 8102</t>
   </si>
   <si>
     <t>ФиРИСУК (ДВС8) лек., Скороходов Д.А., 8112</t>
   </si>
   <si>
-    <t>ФиРИСУК (ДВС8) пр., Скороходов Д.А., 8112</t>
-  </si>
-  <si>
-    <t>СУЭЭУК лек., Лукичев А.Н., 8102</t>
-  </si>
-  <si>
-    <t>МССУ (ДВС6) лаб., Мирошников А.Н., 8112</t>
-  </si>
-  <si>
-    <t>БЖД пр., Трусов А.О., 5134</t>
-  </si>
-  <si>
-    <t>СУЭЭУК пр., Михайлов Д.П., 8102</t>
-  </si>
-  <si>
     <t>МССУ (ДВС6) лек., Мирошников А.Н., 8112</t>
   </si>
   <si>
+    <t>МПТвМиРТ пр., Игнатович Ю.В., 8204</t>
+  </si>
+  <si>
+    <t>МПТвМиРТ лаб., Игнатович Ю.В., 8204</t>
+  </si>
+  <si>
     <t>ТССУ кр., Кузнецов В.Е., 2404</t>
   </si>
   <si>
     <t>Привод пр., Дикун И.А., 2413</t>
   </si>
   <si>
-    <t>МПТвМиРТ лаб., Игнатович Ю.В., 8204</t>
-  </si>
-  <si>
-    <t>МПТвМиРТ пр., Игнатович Ю.В., 8204</t>
-  </si>
-  <si>
     <t>МПТвМиРТ пр., Копычев М.М., 8204</t>
   </si>
   <si>
@@ -230,10 +230,10 @@
     <t>МССУ (ДВС6) пр., Мирошников А.Н., 8112</t>
   </si>
   <si>
+    <t>ФиРИСУК (ДВС8) лаб., Скороходов Д.А., 8112</t>
+  </si>
+  <si>
     <t>СУЭЭУК лаб., Михайлов Д.П., 8102</t>
-  </si>
-  <si>
-    <t>ФиРИСУК (ДВС8) лаб., Скороходов Д.А., 8112</t>
   </si>
 </sst>
 </file>
@@ -619,13 +619,13 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -639,10 +639,10 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -653,13 +653,13 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -673,10 +673,10 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -687,13 +687,13 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -701,16 +701,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -718,16 +718,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -735,16 +735,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -752,16 +752,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -769,16 +769,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -786,16 +786,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -803,16 +803,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -820,16 +820,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -837,16 +837,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -854,16 +854,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -871,16 +871,16 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
         <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -888,16 +888,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -905,16 +905,16 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -922,16 +922,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -939,16 +939,16 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -956,16 +956,16 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -973,16 +973,16 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -993,13 +993,13 @@
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1007,16 +1007,16 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1051,16 +1051,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1068,16 +1068,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1091,10 +1091,10 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1102,16 +1102,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1122,13 +1122,13 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1136,16 +1136,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1153,16 +1153,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1170,16 +1170,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1187,16 +1187,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1204,16 +1204,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1221,16 +1221,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1238,16 +1238,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1255,16 +1255,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1272,16 +1272,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1289,16 +1289,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1306,16 +1306,16 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1323,16 +1323,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1340,16 +1340,16 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1357,16 +1357,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1374,16 +1374,16 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1391,16 +1391,16 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1408,16 +1408,16 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1425,13 +1425,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>
@@ -1442,16 +1442,16 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
